--- a/frontend/web/excel_template/trainees_import_template.xlsx
+++ b/frontend/web/excel_template/trainees_import_template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\timesheet\frontend\web\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ABF5B4-2C38-499D-9A5B-CD8256F25AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756FA4CD-BACA-4A6A-93FB-8A1113BCC43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B1590B0-F212-46CD-B3B2-D177A3210A01}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Input Data Here" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample Inputted Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>STUDENT ID</t>
   </si>
@@ -157,6 +158,149 @@
   </si>
   <si>
     <t>NW</t>
+  </si>
+  <si>
+    <t>Start Here</t>
+  </si>
+  <si>
+    <t>ADDRESS
+(optional)</t>
+  </si>
+  <si>
+    <t>MAJOR
+(optional)</t>
+  </si>
+  <si>
+    <t>YEAR
+(optional)</t>
+  </si>
+  <si>
+    <t>SECTION
+(optional)</t>
+  </si>
+  <si>
+    <t>FIRST NAME
+(required)</t>
+  </si>
+  <si>
+    <t>SURNAME
+(required)</t>
+  </si>
+  <si>
+    <t>STUDENT ID
+(required)</t>
+  </si>
+  <si>
+    <t>MIDDLE NAME
+(optional)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SUFFIX
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(JR, SR, I, II, III, IV, V)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BIRTH DATE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(YYYY-MM-DD)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SEX
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(M/F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOBILE NO.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(e.g. 9123456789)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(optional)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -166,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +329,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -589,9 +740,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0504DF97-F649-48D7-A603-B7166EEE9394}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.88671875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="26.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F3" s="9"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F4" s="9"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F5" s="9"/>
+      <c r="M5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AD489D-E2F1-4F00-8C0C-ADA637F46D26}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,10 +1048,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{B8374939-BB89-4BEB-9093-5691160E5D5F}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{571DEF84-12B6-4A32-9B39-B279E37C6405}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{97285C80-E87B-4A88-8821-D5E0EB6F6513}"/>
-    <hyperlink ref="M5" r:id="rId4" xr:uid="{10343CAC-D9F8-4E21-84DF-7ECFA3FB0F7F}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{26E36170-BCFE-4CBB-B95A-32001846549A}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{F5881B07-A2C8-44E0-9721-6526A990AA61}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{0173C832-0AD8-4A39-9D91-28E22DC1109C}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{C4E9E26A-0E29-489F-83F3-FDFE4ADAAD36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/frontend/web/excel_template/trainees_import_template.xlsx
+++ b/frontend/web/excel_template/trainees_import_template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\timesheet\frontend\web\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756FA4CD-BACA-4A6A-93FB-8A1113BCC43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1D99F1-0BA2-47BD-B9C1-512BBBB287D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B1590B0-F212-46CD-B3B2-D177A3210A01}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Data Here" sheetId="1" r:id="rId1"/>
-    <sheet name="Sample Inputted Data" sheetId="2" r:id="rId2"/>
+    <sheet name="EXAMPLE" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,40 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
-  <si>
-    <t>STUDENT ID</t>
-  </si>
-  <si>
-    <t>FIRST NAME</t>
-  </si>
-  <si>
-    <t>MIDDLE NAME</t>
-  </si>
-  <si>
-    <t>SURNAME</t>
-  </si>
-  <si>
-    <t>BIRTH DATE</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>MOBILE NO.</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>MAJOR</t>
-  </si>
-  <si>
-    <t>SECTION</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>M</t>
   </si>
@@ -91,12 +58,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>SUFFIX</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>19-01905</t>
   </si>
   <si>
@@ -158,25 +119,6 @@
   </si>
   <si>
     <t>NW</t>
-  </si>
-  <si>
-    <t>Start Here</t>
-  </si>
-  <si>
-    <t>ADDRESS
-(optional)</t>
-  </si>
-  <si>
-    <t>MAJOR
-(optional)</t>
-  </si>
-  <si>
-    <t>YEAR
-(optional)</t>
-  </si>
-  <si>
-    <t>SECTION
-(optional)</t>
   </si>
   <si>
     <t>FIRST NAME
@@ -191,29 +133,15 @@
 (required)</t>
   </si>
   <si>
-    <t>MIDDLE NAME
-(optional)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SUFFIX
+    <r>
+      <t xml:space="preserve">MIDDLE NAME
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(JR, SR, I, II, III, IV, V)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -223,24 +151,15 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">BIRTH DATE
+      <t xml:space="preserve">SUFFIX
+(JR, SR, I, II, III, IV, V)
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(YYYY-MM-DD)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -250,57 +169,145 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SEX
+      <t xml:space="preserve">BIRTH DATE
+(YYYY-MM-DD)
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFFC000"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(M/F)</t>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SEX
+(M/F)
+</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-(optional)</t>
+      <t>(optional)</t>
     </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">MOBILE NO.
+(e.g. 9123456789)
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFFC000"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(e.g. 9123456789)</t>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADDRESS
+</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-(optional)</t>
-    </r>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MAJOR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YEAR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SECTION
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EMAIL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <t>START HERE</t>
   </si>
 </sst>
 </file>
@@ -310,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,13 +342,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +366,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -407,22 +428,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -740,87 +764,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0504DF97-F649-48D7-A603-B7166EEE9394}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="39.88671875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="14.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="26.44140625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="M2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F3" s="9"/>
-      <c r="M3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F4" s="9"/>
-      <c r="M4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F5" s="9"/>
-      <c r="M5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="M5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -829,229 +854,231 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AD489D-E2F1-4F00-8C0C-ADA637F46D26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED25426E-AF44-4639-826E-D39BD3DAFED1}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="39.88671875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="14.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="26.44140625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
+    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="9">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7">
         <v>36774</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>9123456789</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1">
         <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="9">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7">
         <v>37066</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>9123456788</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1">
         <v>4</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="9">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7">
         <v>37077</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>9123356788</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1">
         <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="9">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7">
         <v>37091</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>9423356788</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1">
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{26E36170-BCFE-4CBB-B95A-32001846549A}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{F5881B07-A2C8-44E0-9721-6526A990AA61}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{0173C832-0AD8-4A39-9D91-28E22DC1109C}"/>
-    <hyperlink ref="M5" r:id="rId4" xr:uid="{C4E9E26A-0E29-489F-83F3-FDFE4ADAAD36}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{37974E99-7071-4668-B940-8E229E62A1E7}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{3E3B9753-0AC5-4324-BBFF-60EA8919E839}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{D3FB6E33-3CAD-4318-9E3D-C160125CE2FC}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{577BD140-99E4-4DB5-A20C-BAACA8101F15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
